--- a/1. Doble Rendija/Data/data_izquierda_laser.xlsx
+++ b/1. Doble Rendija/Data/data_izquierda_laser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/s_martinezc234_uniandes_edu_co/Documents/6to Semestre/Laboratorio Intermedio/Laboratorios/Semana 1- Doble Rendija/Datos Y Análisis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\GitHub\Intermedio\1. Doble Rendija\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_AD4D2F04E46CFB4ACB3E20CFFD17DF80683EDF22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CECBC76-14A1-45B7-8323-53870D38CE22}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3211FD-FBCE-4E42-8F18-2E910F343CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -107,7 +107,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,6 +1207,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1954,10 +1968,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3015,7 +3025,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
